--- a/data/pediatric.xlsx
+++ b/data/pediatric.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/squatrim /Desktop/R/shiny/GlioVis_GitHub/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/squatrim /Desktop/R/shiny/GlioVis/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="62">
   <si>
     <t>Dataset</t>
   </si>
@@ -134,9 +134,6 @@
     <t>&lt;a href="http://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE50385" style="color: rgb(0,0,0)"&gt;Microarray&lt;/a&gt;</t>
   </si>
   <si>
-    <t>&lt;a href="http://www.ncbi.nlm.nih.gov/pubmed/18769486" style="color: rgb(0,0,0)"&gt;Kool &lt;/a&gt;</t>
-  </si>
-  <si>
     <t>&lt;a href="http://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE10327" style="color: rgb(0,0,0)"&gt;Microarray&lt;/a&gt;</t>
   </si>
   <si>
@@ -198,6 +195,21 @@
   </si>
   <si>
     <t>&lt;a href="http://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE49822" style="color: rgb(0,0,0)"&gt;Microarray&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.ncbi.nlm.nih.gov/pubmed/22722829" style="color: rgb(0,0,0)"&gt;Robinson&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE37418" style="color: rgb(0,0,0)"&gt;Microarray&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.ncbi.nlm.nih.gov/pubmed/18769486" style="color: rgb(0,0,0)"&gt;Kool _2011&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE49243" style="color: rgb(0,0,0)"&gt;Microarray&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.ncbi.nlm.nih.gov/pubmed/24651015" style="color: rgb(0,0,0)"&gt;Kool_2014&lt;/a&gt;</t>
   </si>
 </sst>
 </file>
@@ -512,13 +524,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="101.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -783,45 +798,45 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E10" t="s">
         <v>9</v>
       </c>
       <c r="F10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G10" t="s">
         <v>9</v>
       </c>
       <c r="H10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C11">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="E11" t="s">
         <v>9</v>
@@ -830,65 +845,65 @@
         <v>9</v>
       </c>
       <c r="G11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="E12" t="s">
         <v>9</v>
       </c>
       <c r="F12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D13">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E13" t="s">
         <v>9</v>
       </c>
       <c r="F13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H13" t="s">
         <v>10</v>
@@ -899,51 +914,51 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C14">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="E14" t="s">
         <v>9</v>
       </c>
       <c r="F14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="E15" t="s">
         <v>9</v>
       </c>
       <c r="F15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G15" t="s">
         <v>9</v>
@@ -952,21 +967,21 @@
         <v>10</v>
       </c>
       <c r="I15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B16" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C16">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D16">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E16" t="s">
         <v>9</v>
@@ -978,7 +993,7 @@
         <v>10</v>
       </c>
       <c r="H16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I16" t="s">
         <v>10</v>
@@ -986,22 +1001,22 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B17" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E17" t="s">
         <v>9</v>
       </c>
       <c r="F17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G17" t="s">
         <v>9</v>
@@ -1010,24 +1025,24 @@
         <v>10</v>
       </c>
       <c r="I17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18">
+        <v>5</v>
+      </c>
+      <c r="D18">
         <v>46</v>
       </c>
-      <c r="B18" t="s">
-        <v>47</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>47</v>
-      </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F18" t="s">
         <v>10</v>
@@ -1036,7 +1051,7 @@
         <v>10</v>
       </c>
       <c r="H18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I18" t="s">
         <v>10</v>
@@ -1044,19 +1059,19 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
         <v>49</v>
       </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19" t="s">
-        <v>12</v>
-      </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F19" t="s">
         <v>10</v>
@@ -1068,30 +1083,30 @@
         <v>10</v>
       </c>
       <c r="I19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B20" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C20">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="E20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F20" t="s">
         <v>10</v>
       </c>
       <c r="G20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H20" t="s">
         <v>10</v>
@@ -1102,88 +1117,146 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B21" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
-      <c r="D21">
-        <v>40</v>
+      <c r="D21" t="s">
+        <v>12</v>
       </c>
       <c r="E21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H21" t="s">
         <v>10</v>
       </c>
       <c r="I21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B22" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="D22">
+        <v>35</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F22" t="s">
         <v>10</v>
       </c>
       <c r="G22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>40</v>
+      </c>
+      <c r="E23" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G23" t="s">
+        <v>10</v>
+      </c>
+      <c r="H23" t="s">
+        <v>10</v>
+      </c>
+      <c r="I23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" t="s">
+        <v>10</v>
+      </c>
+      <c r="G24" t="s">
+        <v>10</v>
+      </c>
+      <c r="H24" t="s">
+        <v>9</v>
+      </c>
+      <c r="I24" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" t="s">
         <v>56</v>
       </c>
-      <c r="B23" t="s">
-        <v>57</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23">
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
         <v>22</v>
       </c>
-      <c r="E23" t="s">
-        <v>10</v>
-      </c>
-      <c r="F23" t="s">
-        <v>10</v>
-      </c>
-      <c r="G23" t="s">
-        <v>9</v>
-      </c>
-      <c r="H23" t="s">
-        <v>10</v>
-      </c>
-      <c r="I23" t="s">
+      <c r="E25" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" t="s">
+        <v>10</v>
+      </c>
+      <c r="G25" t="s">
+        <v>9</v>
+      </c>
+      <c r="H25" t="s">
+        <v>10</v>
+      </c>
+      <c r="I25" t="s">
         <v>10</v>
       </c>
     </row>

--- a/data/pediatric.xlsx
+++ b/data/pediatric.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26311"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/squatrim /Desktop/R/shiny/GlioVis/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/msquatrito/Desktop/R/shiny/GlioVis/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1340" yWindow="460" windowWidth="19400" windowHeight="18160" tabRatio="500"/>
+    <workbookView xWindow="1380" yWindow="480" windowWidth="31760" windowHeight="17480" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="64">
   <si>
     <t>Dataset</t>
   </si>
@@ -210,6 +213,12 @@
   </si>
   <si>
     <t>&lt;a href="http://www.ncbi.nlm.nih.gov/pubmed/24651015" style="color: rgb(0,0,0)"&gt;Kool_2014&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.ncbi.nlm.nih.gov/pubmed/28609654" style="color: rgb(0,0,0)"&gt;Cavalli&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE85217" style="color: rgb(0,0,0)"&gt;Microarray&lt;/a&gt;</t>
   </si>
 </sst>
 </file>
@@ -524,10 +533,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -566,16 +575,16 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>285</v>
+        <v>763</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
@@ -590,21 +599,21 @@
         <v>10</v>
       </c>
       <c r="I2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
-      <c r="D3" t="s">
-        <v>11</v>
+      <c r="D3">
+        <v>285</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
@@ -624,16 +633,16 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
-      <c r="D4">
-        <v>151</v>
+      <c r="D4" t="s">
+        <v>11</v>
       </c>
       <c r="E4" t="s">
         <v>9</v>
@@ -642,10 +651,10 @@
         <v>10</v>
       </c>
       <c r="G4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I4" t="s">
         <v>10</v>
@@ -653,16 +662,16 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C5">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>117</v>
+        <v>151</v>
       </c>
       <c r="E5" t="s">
         <v>9</v>
@@ -674,7 +683,7 @@
         <v>10</v>
       </c>
       <c r="H5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I5" t="s">
         <v>10</v>
@@ -682,16 +691,16 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C6">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D6">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="E6" t="s">
         <v>9</v>
@@ -711,16 +720,16 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D7">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E7" t="s">
         <v>9</v>
@@ -729,7 +738,7 @@
         <v>10</v>
       </c>
       <c r="G7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H7" t="s">
         <v>10</v>
@@ -740,16 +749,16 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="E8" t="s">
         <v>9</v>
@@ -758,33 +767,33 @@
         <v>10</v>
       </c>
       <c r="G8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H8" t="s">
         <v>10</v>
       </c>
       <c r="I8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D9">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="E9" t="s">
         <v>9</v>
       </c>
       <c r="F9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
@@ -793,30 +802,30 @@
         <v>10</v>
       </c>
       <c r="I9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="E10" t="s">
         <v>9</v>
       </c>
       <c r="F10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H10" t="s">
         <v>10</v>
@@ -827,80 +836,80 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E11" t="s">
         <v>9</v>
       </c>
       <c r="F11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G11" t="s">
         <v>9</v>
       </c>
       <c r="H11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="B12" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E12" t="s">
         <v>9</v>
       </c>
       <c r="F12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="C13">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="E13" t="s">
         <v>9</v>
       </c>
       <c r="F13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
@@ -914,16 +923,16 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D14">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="E14" t="s">
         <v>9</v>
@@ -932,56 +941,56 @@
         <v>9</v>
       </c>
       <c r="G14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E15" t="s">
         <v>9</v>
       </c>
       <c r="F15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G15" t="s">
         <v>9</v>
       </c>
       <c r="H15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="B16" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C16">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="E16" t="s">
         <v>9</v>
@@ -990,7 +999,7 @@
         <v>10</v>
       </c>
       <c r="G16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H16" t="s">
         <v>10</v>
@@ -1001,74 +1010,74 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B17" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D17">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E17" t="s">
         <v>9</v>
       </c>
       <c r="F17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H17" t="s">
         <v>10</v>
       </c>
       <c r="I17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B18" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C18">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="E18" t="s">
         <v>9</v>
       </c>
       <c r="F18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B19" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D19">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E19" t="s">
         <v>9</v>
@@ -1077,10 +1086,10 @@
         <v>10</v>
       </c>
       <c r="G19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I19" t="s">
         <v>10</v>
@@ -1088,25 +1097,25 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B20" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F20" t="s">
         <v>10</v>
       </c>
       <c r="G20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H20" t="s">
         <v>10</v>
@@ -1117,17 +1126,17 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
         <v>47</v>
       </c>
-      <c r="B21" t="s">
-        <v>48</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21" t="s">
-        <v>12</v>
-      </c>
       <c r="E21" t="s">
         <v>10</v>
       </c>
@@ -1135,30 +1144,30 @@
         <v>10</v>
       </c>
       <c r="G21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H21" t="s">
         <v>10</v>
       </c>
       <c r="I21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B22" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C22">
-        <v>10</v>
-      </c>
-      <c r="D22">
-        <v>35</v>
+        <v>0</v>
+      </c>
+      <c r="D22" t="s">
+        <v>12</v>
       </c>
       <c r="E22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F22" t="s">
         <v>10</v>
@@ -1170,30 +1179,30 @@
         <v>10</v>
       </c>
       <c r="I22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B23" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D23">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E23" t="s">
         <v>9</v>
       </c>
       <c r="F23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H23" t="s">
         <v>10</v>
@@ -1204,59 +1213,88 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B24" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
-      <c r="D24" t="s">
-        <v>13</v>
+      <c r="D24">
+        <v>40</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G24" t="s">
         <v>10</v>
       </c>
       <c r="H24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" t="s">
+        <v>10</v>
+      </c>
+      <c r="G25" t="s">
+        <v>10</v>
+      </c>
+      <c r="H25" t="s">
+        <v>9</v>
+      </c>
+      <c r="I25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>55</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B26" t="s">
         <v>56</v>
       </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-      <c r="D25">
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
         <v>22</v>
       </c>
-      <c r="E25" t="s">
-        <v>10</v>
-      </c>
-      <c r="F25" t="s">
-        <v>10</v>
-      </c>
-      <c r="G25" t="s">
-        <v>9</v>
-      </c>
-      <c r="H25" t="s">
-        <v>10</v>
-      </c>
-      <c r="I25" t="s">
+      <c r="E26" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" t="s">
+        <v>10</v>
+      </c>
+      <c r="G26" t="s">
+        <v>9</v>
+      </c>
+      <c r="H26" t="s">
+        <v>10</v>
+      </c>
+      <c r="I26" t="s">
         <v>10</v>
       </c>
     </row>
